--- a/Jobs/MCFJobs.xlsx
+++ b/Jobs/MCFJobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\william 281120\personal\career\training\race\Delta\Delta_RPAJ01_JobMatchingForPlacements\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26214EEA-0F6E-4030-97E2-7E1DBA66D71B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605EDB9F-8E4A-4B52-8998-CAE68425ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{A27C9BDD-C295-4CCD-99F1-2285011B1044}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A27C9BDD-C295-4CCD-99F1-2285011B1044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>Job Title</t>
   </si>
@@ -39,205 +39,473 @@
     <t>Post Date</t>
   </si>
   <si>
-    <t>Posted yesterday</t>
-  </si>
-  <si>
-    <t>Embedded software developer with Linux / QNX C++ experience</t>
-  </si>
-  <si>
-    <t>TROYTECH INTERNATIONAL CONSULTING PTE LTD</t>
-  </si>
-  <si>
-    <t>/job/information-technology/embedded-software-developer-linux-qnx-c-experience-troytech-international-consulting-cc8de0acb995d2a52a0ea1492f3c7d96</t>
-  </si>
-  <si>
     <t>Posted today</t>
   </si>
   <si>
-    <t>Accounts cum Admin</t>
-  </si>
-  <si>
-    <t>A-TEXAS TECHNOLOGIES PTE. LTD.</t>
-  </si>
-  <si>
-    <t>/job/accounting/accounts-cum-admin-a-texas-technologies-e244c9db6c86d06f0023843432e61571</t>
-  </si>
-  <si>
-    <t>Controls Subject Matter Expert</t>
-  </si>
-  <si>
-    <t>MALKOHA PTE. LTD.</t>
-  </si>
-  <si>
-    <t>/job/engineering/controls-subject-matter-expert-malkoha-8004fb0a92a357e9920c3a85e8f279a8</t>
-  </si>
-  <si>
-    <t>IPSS Team Lead - 6 Months Contract (Renewable)</t>
-  </si>
-  <si>
-    <t>EPS COMPUTER SYSTEMS PTE LTD</t>
-  </si>
-  <si>
-    <t>/job/information-technology/ipss-team-lead-6-months-contract-eps-computer-systems-f583c9bf1daa900640ca5d3ba5e0413d</t>
-  </si>
-  <si>
-    <t>❤️Sales Personnel❤️100% Customers Provided❤️Client Relationship Marketing❤️</t>
-  </si>
-  <si>
-    <t>RECRUITMENT EXPRESS</t>
-  </si>
-  <si>
-    <t>/job/❤️sales-personnel❤️100-customers-provided❤️client-relationship-marketing❤️-recruitment-express-7d3e1ee5c05f97fd83092f3270030faf</t>
-  </si>
-  <si>
-    <t>Roles &amp; ResponsibilitiesRequire 1 embedded software developer with Linux/QNX C++ experience to work on Automatic Gate development for a 15 months contract period (renewable).
-The developer will responsible for the development of the Automatic Gate application, participate in the software development life cycle from definition of requirements to design and development, testing, implementation and support and maintenance.
-Duties and Responsibilities:
-Works with multi-disciplinary team to understand system / application requirements
-As part of a team, develops software solutions that meets client’s needs and perform as designed
-Capable of applying technical best practices to all projects
-Consistently improves skills in order to deliver high-quality output and gain increased responsibility
-Communicates professionally with clients and internal staff to identify needs and evaluate solutions
-Willingness to explore new technologies, learn new concepts and share ideas with others
-Knowledge, Skills and Abilities:
-Experience handling multiple tasks while meeting deadlines
-Ability to thrive in a team development environment while also being able to work independently
-Good understanding of the benefits of the various design patterns and object-oriented programming
-Technical Skills and Experience:
-Recognised Degree in Electrical/Electronics Engineering/Computer Science or a relevant discipline
-At least 3 years’ experience in C++ object-oriented software development
-At least 3 years’ experience working in embedded Linux/QNX
-Experience in develop RTOS based embedded applications.
-Experience in device/terminal applications development and client/server application interface.
-Experience in multi-threading, multi-processor experience and hardware-software integration
-Excellent problem-solving, design, development, research, and debugging skills.
-Experience in Wireless network, Bluetooth, 3g network, QR code and GPS technologies
-Experience in Windows Application and QT is a plus
-Good communication skills.
-Willingness to travel overseas.</t>
-  </si>
-  <si>
-    <t>Roles &amp; ResponsibilitiesGeneral Responsibility:
-· Able to handle full set of accounts.
-. Monitor and check overseas account reports.
-. Follow up and updates overseas sales reports, service renewal      reports, project progress reports and relevant paper works
-. Handle shipment for overseas projects
-· Administrative duties related to HR and Operations
-· Any other ad-hoc admin duties as assigned by the Manager.
+    <t>THE SUPREME HR ADVISORY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>Sales Executive</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>Infrastructure Support Engineer , IT ( Urgent)</t>
+  </si>
+  <si>
+    <t>THE WRITES RECRUITMENT PTE. LTD.</t>
+  </si>
+  <si>
+    <t>/job/infrastructure-support-engineer-writes-recruitment-c58f2d7f3dcfc17c591f959a5eb78851</t>
+  </si>
+  <si>
+    <t>Purchasing Assistant [Assisting / Jurong West] - 9155</t>
+  </si>
+  <si>
+    <t>/job/purchasing-assistant-assisting-jurong-west-9155-supreme-hr-advisory-b6991fbff82e1c9200958f71555f9d7b</t>
+  </si>
+  <si>
+    <t>Operation Executive [Administrative / Documentation / PO / Tai Seng] - 9155</t>
+  </si>
+  <si>
+    <t>/job/admin/operation-executive-administrative-documentation-po-tai-seng-9155-supreme-hr-advisory-28bd18f9804359294162430f1556ec21</t>
+  </si>
+  <si>
+    <t>CRM Regional Assistant Manager, APAC</t>
+  </si>
+  <si>
+    <t>TIFFANY &amp; CO. PTE. LTD.</t>
+  </si>
+  <si>
+    <t>/job/marketing/crm-regional-assistant-manager-apac-tiffany-eef3aef40b3eacb2b80765b4e7568328</t>
+  </si>
+  <si>
+    <t>FA Engineer</t>
+  </si>
+  <si>
+    <t>GRAND VENTURE TECHNOLOGY LIMITED</t>
+  </si>
+  <si>
+    <t>/job/fa-engineer-grand-venture-technology-1aafa2e286f4e5b1eda5769a868bc762</t>
+  </si>
+  <si>
+    <t>ZENITH FACILITY SERVICES PTE. LTD.</t>
+  </si>
+  <si>
+    <t>/job/sales-executive-zenith-facility-services-046ad1457839cb87f859bcf440e865cf</t>
+  </si>
+  <si>
+    <t>Client Account Manager [Site Support / Customer Service / 5 Days / Central] - 9155</t>
+  </si>
+  <si>
+    <t>/job/customer-service/client-account-manager-site-support-customer-service-5-days-central-9155-supreme-hr-advisory-f4d3772bbdadd989a422a74608490380</t>
+  </si>
+  <si>
+    <t>Telesales Executive ( Urgent)</t>
+  </si>
+  <si>
+    <t>/job/telesales-executive-writes-recruitment-8a8edf9119f0517379075b607ade4598</t>
+  </si>
+  <si>
+    <t>Accounts cum HR Manager [Full Set Account / MYOB / Payroll / CPF / Redhill] - 9155</t>
+  </si>
+  <si>
+    <t>/job/accounts-cum-hr-manager-full-set-account-myob-payroll-cpf-redhill-9155-supreme-hr-advisory-f1e38eaa2f12b05381f0e4e0a35dd6d8</t>
+  </si>
+  <si>
+    <t>Staff Nurse</t>
+  </si>
+  <si>
+    <t>BUDDHIST COMPASSION RELIEF TZU-CHI FOUNDATION (SINGAPORE)</t>
+  </si>
+  <si>
+    <t>/job/medical/staff-nurse-buddhist-compassion-relief-tzu-chi-foundation-c88d3206197400f749bba973e57b9718</t>
+  </si>
+  <si>
+    <t>Assistant Registrar [Admin / Lab / East] - 9155</t>
+  </si>
+  <si>
+    <t>/job/admin/assistant-registrar-admin-lab-east-9155-supreme-hr-advisory-4dd2b9b2ceb379ca59ecd0e8e2934a21</t>
+  </si>
+  <si>
+    <t>Corporate Telesales Executive ( Urgent)</t>
+  </si>
+  <si>
+    <t>/job/corporate-telesales-executive-writes-recruitment-661d81a92b2f2809fa4db046460b1304</t>
+  </si>
+  <si>
+    <t>DELTAFRONTIER PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>/job/sales-manager-deltafrontier-98a3cdf3cc95616ba89aa1802c211089</t>
+  </si>
+  <si>
+    <t>General Cleaner</t>
+  </si>
+  <si>
+    <t>/job/general-cleaner-zenith-facility-services-f6018d4b9661004d8bcb15b68dda1d56</t>
+  </si>
+  <si>
+    <t>Telesales Executive. B2B ( Urgent)</t>
+  </si>
+  <si>
+    <t>/job/telesales-executive-b2b-writes-recruitment-b1f50818ff9ea5f968d6b63a267c158b</t>
+  </si>
+  <si>
+    <t>Administrative Manager</t>
+  </si>
+  <si>
+    <t>LJK CLEANING GURU LLP</t>
+  </si>
+  <si>
+    <t>/job/administrative-manager-ljk-cleaning-guru-3291faede7e89a2e76aa211d8e35bd71</t>
+  </si>
+  <si>
+    <t>Product Design Engineer [AutoCAD / Training Provided / 5 Days / Bedok] - 9155</t>
+  </si>
+  <si>
+    <t>/job/engineering/product-design-engineer-autocad-training-provided-5-days-bedok-9155-supreme-hr-advisory-2fc65adbf8d20948097cd5037b98fac7</t>
+  </si>
+  <si>
+    <t>INTERIOR DESIGNER</t>
+  </si>
+  <si>
+    <t>PROJECT U PTE. LTD.</t>
+  </si>
+  <si>
+    <t>/job/architecture/interior-designer-project-u-bc76d282e27f3e1b3140d8c5f349aa72</t>
+  </si>
+  <si>
+    <t>Postdoctoral Research Fellow (Chemical &amp; Biomolecular Engineering)</t>
+  </si>
+  <si>
+    <t>NATIONAL UNIVERSITY OF SINGAPORE</t>
+  </si>
+  <si>
+    <t>/job/postdoctoral-research-fellow-national-university-singapore-021a3f680ac488c9e893863eaae828ab</t>
+  </si>
+  <si>
+    <t>Accounts Manager</t>
+  </si>
+  <si>
+    <t>/job/accounting/accounts-manager-project-u-d7b70e0a499eff03a72b561c7d08a1a1</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesHighlights
+  5 days work week
+  Working Location: Alexandra
+  Salary : $2,500 -$3,500 ( commensurate according to experience)
+  Able to start immediately/ within short notice
+Job Description
+  Responsible for on-site support for desktop hardware, desktop applications, emails, printers and other related issues.
+  End user issue and request support.
+  IT administrative work on purchase management, vendor management, asset management, report rendering, etc.
+  To perform installation, uninstallation, configuration, technical support, troubleshooting and resolution to the clients.
+  To perform hardware and software moves.
+  To perform preventive and corrective maintenance works as scheduled in the Preventive Maintenance Program, such as minor installation, repairs and replacement works.
+  To maintain proper preventive maintenance records and ensure works carryout compliance with the processes and standards.
+  To invoke problem escalation process to next level of support.
+Requirements
+  Candidate must possess at least a Professional Certificate/NiTec /Diploma/Bachelor’s Degree level in Computer Science/ Information Technology or equivalent.
+  Must have 2-4 years’ experience in infrastructuresupport.
+  Proficient in Microsoft Office 365 and Active Directory applications 
+  Have some network printing troubleshooting experiences.
+  Good to have IT helpdesk /IT support experience desirable.
+  General skills - Candidate to demonstrate a good/positive attitude, good customer service skills, resourceful, responsive and pro-active. Pleasant personality. Ability to work cohesively in a team and individually
+Interested applicants please send your resume to admin@thewritesrecruit.com.sg to further discuss on your eligibility. We regret to inform that only shortlisted candidates will be notified.
+If you are looking for a role where you can contribute effectively,contact us at admin@thewritesrecruit.com.sg for a confidential discussion.
+By submitting your curriculum vitae or personal data to us in connection with your job application, you hereby consent to The Writes Recruitment Pte Ltd collecting, using and disclosing your personal data to prospective employers to collect, use and disclose these personal data for purposes of evaluating your suitability for employment ,conducting reference checks, administering employment related services and such other purposes stated in our privacy policy. You acknowledge that the full privacy policy is available at www.thewritesrecruit.com.sg or at your request. If you wish to withdraw your consent, please drop us an email admin@thewritescruit.com.sg to let us know.</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesIf you are interested to apply, kindly submit your updated resume in DOC file and allow our Consultant to match you with our Clients.
+We regret to inform that only shortlisted candidates would be notified
+WhatsApp: +65 9123 1453 (Alex)
+Email: supreme.alexlee@gmail.com
+Reg no: R2199155
+The Supreme HR Advisory Pte Ltd EA number: 14C7279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles &amp; ResponsibilitiesPosition Overview:
+The CRM Regional Assistant Manager will be a direct support to the Marketing &amp; CRM Regional Manager as well as the local Marketing &amp; CRM teams. His/her mission will be to facilitate customer-centric CRM activations for the Asia Pacific region focusing on increasing new consumer recruitment and growing existing clients. The CRM Assistant Manager will be championing the coordination of the Tiffany &amp; Co. database to provide actionable customer insights. He/She will suggest, test and drive new clienteling tactics in the region to constantly renew and improve our CRM approach.
+The individual will work closely with the Manager in building out and executing the region’s customer analysis requirements, reports/dashboards, KPIs monitoring, outreach program planning/execution, support/performance monitoring.
+He/she is a team player who is results-oriented and has a positive, can-do attitude as we set up workflows with market and corporate team partners. He/she must be proactive, have a sound understanding of APAC markets and is able to deliver CRM programs that works for the retail team in the region.
+Key Accountabilities:
+Provide clienteling approaches and help manage client development and acquisition initiatives for Asia Pacific
+  Support in developing and managing strategies for attracting new clients
+  Suggest implementation of new tactics to grow business from existing clientele
+  Regular monitoring of best practices sharing to support local customers’ business contribution
+  Assist the Manager in providing feedback to markets on trends, suggestions for improvement and reporting on best practices as they relate to business priorities
+  Support in the understanding, setting up of benchmarks and then regular monitoring of loyalty and customer metrics
+  Provide any ad-hoc reporting and analysis support to Marketing team using Business Objects as needed, according to on-going business context and needs, specifically insights into customer buying behavior to understand different behaviors by customer profile, segment or product line
+  Manage Customer data hygiene through collations and cleaning of data
+Outreach campaign planning and analysis
+  Support the full lifecycle of sales and marketing outreach initiatives (1:1 and M:1) across the marketing mix
+  Create and monitor client lists for catalogue mail outs, events or other outreach initiatives establishing KPI’s with Marketing Manager; assist in reporting on post-campaign results
+  Monthly follow-up of clienteling program sales/loyalty metrics performance; discussion/alignment on what’s working well and the directions for next month market by market
+  With Manager, partner with global team and market team on predictive analytic capabilities
+Training
+  Draft and regularly update CRM training presentations
+  Deliver training presentations to retail / trade teams
+  Conduct on-going training support and ad hoc coaching
+  Champion all clienteling efforts for the Region and instill the Sales team with the same passion
+Regional Communication and Coordination
+  Attend monthly conference calls hosted by global team as required
+  Coordination of tools, roll-out of new IT capabilities/features, presentations/follow-up
+  Help formalize best practice sharing of CRM/Clienteling subjects across the region via a newsletter or other communication means
+  Report on any competitive insights
+  Manage and execute any special client projects as requested, such as client      portfolios, statement jewelry valuation delivery programs, etc
+Qualifications:
+  Bachelor degree of related discipline, 5 years related experience
+  Experience and proven success in data analysis/business intelligence/or CRM field, with analytical, synthesis skills
+  Strong communication, presentation and interpersonal skills
+  Skills to plan and deliver results in a demanding environment
+  Advanced skills on Microsoft Office software, especially Excel and PowerPoint.
+  Knowledge of Business Objects, Tableau, predictive analysis will be advantageous
+  Ability to take ownership and multi-task, good team player
+Preferred
+  CRM experience in retail or luxury retail, financial services, loyalty consultancy or banking sectors preferred
+  Familiar with Fashion or luxury brands retail environment
+</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesRequirements:
+· Applicant need to possess at least a Degree/Diploma in Mechanical Engineering or equivalent
+· Minimum 2 years in Precision Engineering, Mechanical/Manufacturing Engineering or related field
+· Knowledge and experience in handling Coordinate Measuring Machine (CMM) /Basic programming knowledge
+· Knowledge on measuring and statistical tools and techniques
+· Responsible, hardworking, positive attitude and able to work well as a team
+· Good GD&amp;T, GR&amp;R, SPC knowledge, FMEA, PMP
+· Knowledge in Minitab statistical software
+· Strong in technical problem solving skills and quality tools
+Responsibilities:
+· Plan, perform and prepare First Article Inspection (FAI) reports with Incoming, Inprocess and Outgoing quality inspections and records
+· Handle and approve First Article Submissions and reports from both inhouse and suppliers
+· Understand &amp; ensure compliance with customer’s requirements
+· Work with customers during the on-site First Article Inspection (FAI) buyoff
+· Monitor, maintain and continually improve quality standards
+· Resolve quality issues with internal and external parties
+· Maintaining of FA approval tracker
+· Handle and review on non-conformances &amp; disposition actions for all FA related products
+· Assist in maintaining ISO Systems, reports, follow up and closure
+· Preparing work instructions (WI) for all new inspection plan and activities
+· Hand over and transfer to QA team upon FA approvals during mass production
+· Able to handle well with all customers
+· Attending Engineering Change Order meeting with Project Team, Production
+· Other Ad-hoc duties assigned</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesWe are looking for a motivated candidate who is passionate and shows strong enthusiasm for both marketing and client services.
+Job Type: Full-time.
+-Basic salary with Attractive Commission Package.
+-Call 94779889
+Job Description
+-Coordinate and execute all approved marketing strategies and constantly monitor the effectiveness of the company’s as well as the competitors’ promotional activities, and to recommend appropriate remedial actions for improvements.
+-Develop client acquisition and retention policies to achieve referrals and new businesses.
+-Propose and recommend effective and efficient strategic solutions for clients.
+-Management and use of social media channels, marketing tools and company’s social media portfolio
+-Establishes and maintains relationships with clients, and efficient in negotiating terms to close deals.
+-New Generation thinking.
+-Other Ad Hoc duties as assigned by the management
+Requirements:
+-Excellent communication and interpersonal skills.
+-Positive attitude, proactive and results-oriented.
+-Ability to perform well under pressure.
+-Good command of both English and Chinese languages.
+-Candidate must possess at least Bachelor's Degree/Post Graduate Diploma/Professional Degree in Marketing or equivalent.
+-Fresh graduate welcome.</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesHighlights 
+  5 .5 days work week
+  Up to $2000 + Incentives 
+  Working Location: West/ East
+Job Description:
+  Perform telemarketing calls to leads provided by partners to achieve sales target.
+  Understanding the needs of the customers and recommend suitable products to them
+  Convert leads provided by partner to sales through telemarketing activities
+  Ensure call activities are conducted with full adherence to regulations and in line with the Quality standards
+  Training will be provided.
+Requirements:
+  Candidate with relevant experience in Telesales is preferred.
+  Strong communication skills.
+  Good learning attitude and proactive.
+  High resilience and perseverance .
+Interested applicants please send your resume to admin@thewritesrecruit.com.sg to further discuss on your eligibility. We regret to inform that only shortlisted candidates will be notified.
+If you are looking for a role where you can contribute effectively,contact us at admin@thewritesrecruit.com.sg for a confidential discussion.
+By submitting your curriculum vitae or personal data to us in connection with your job application, you hereby consent to The Writes Recruitment Pte Ltd collecting, using and disclosing your personal data to prospective employers to collect, use and disclose these personal data for purposes of evaluating your suitability for employment ,conducting reference checks, administering employment related services and such other purposes stated in our privacy policy. You acknowledge that the full privacy policy is available at www.thewritesrecruit.com.sg or at your request. If you wish to withdraw your consent, please drop us an email admin@thewritescruit.com.sg to let us know.</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesJob Descriptions:
+  Plan &amp; coordinate, to provide holistic, safe and personalized quality care for patients.
+  Provide nursing procedures for patients in accordance to standard of nursing practice.
+  Provide support to patients. 
+  Anticipate and monitor patients’ conditions, trigger prompt escalation and management to Home      medical team.
 Job Requirements:
-· ACCA / Diploma in Accountancy or equivalent
-· Knowledge of MYOB preferred
-· Minimum 2 years of relevant working experience
-· Excellent verbal and written communication skills
-· Ability to solve problems logically and critically
-· Meticulous, independent and self-motivated
-· Resouceful, organized and able to multi-task
-· Proficient in Microsoft Office Word and Excel
-. Singaporeans/PR preferred
-   Interested applicants are invited to email their detailed resume with      current and expected salary
-   We regret that only shortlisted applicants will be notified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roles &amp; ResponsibilitiesSeeking a data center Controls Subject Matter Expert to join our Data Center Facility Operations team. Our data centers serve as the foundation upon which our software operates to meet the demands of our customers. The Controls Subject Matter Expert will be a part of the facility operations team and will be responsible for reliability and quality of the Building Management System (BMS). The candidate will support data center daily operations, and global quality / standardization initiatives, and have a working knowledge of electrical and mechanical systems.
-Responsibilities
-  Accountable for all Building Management System (BMS) changes and enhancements at the data center as part of a global fleet
-  Diagnose and repair complex control system malfunctions requiring extensive knowledge of a variety of electronic or digital controls systems and ability to test and write modifications in multiple languages of systems software
-  Troubleshoot and repair controls hardware including controllers, relays, measurement devices, actuators, and associated equipment with mechanical and electrical device systems
-  Review operating equipment data for efficiency improvements, monitor all building systems for abnormal operating trends, and make optimization adjustments accordingly
-  Collaborate with other disciplines to make modifications to BMS settings to manage the building space
-  Ensure appropriate cross-functional collaboration between local controlsteam and applicable local and global teams
-  Manage controls vendors while supporting site operations, including direct oversight to all system configuration and component upgrades
-  Provide QAQC oversight of hardware installation to provide controls scope, review proposals and review programming through commissioning process for new construction and retrofits
-  Oversee all system configurations and component upgrades to ensure system integrity is maintained and that all modifications to existing systems are in compliance with best practices, including change control processes
-  Provide technical controls training and support to all Facility Operations staff
-  Collaborate with the global controls team to provide feedback on global controls strategies and implement global initiatives at the data center
-  Communicate all issues and upcoming controls work with site management
-  Other duties as required to support the operation of Facebook data centers
-  Travel expectations: Can be significant during first 1-3 months for initial training/onboarding and then ongoing occasional travel for factory witness tests, collaboration, etc.
-Minimum Qualifications
-  7+ years of controls experience in programming development, start up, and commissioning of complex systems -central plants, air handling units, and evaporative cooling/humidification systems
-  Bachelor’s degree in Engineering/Technical studies, Military Technical School, or equivalent work experience
-  Working knowledge of critical facility operations with experience or understanding of procedure-based work
-  Experience in data centers or other critical environments
-  Working knowledge of mechanical, electrical and life safety systems associated with critical environments
-  Experience interpreting blueprints/CAD drawings and controls diagrams
-  Experience working in a highly collaborative, cross-functional environment
-  Working knowledge of Microsoft Office Suite-Word, Excel, and Outlook
-Preferred Qualifications
-  PLC experience
-  Alerton experience
-  Experience with software programming languages: Python, PHP, SQL
-  Experience beyond field technician level -project management, project engineering, operations management
-  IT/Networking certification
+  Posses State Register Nurse and BCLS &amp; AED Certificate is a MUST.
+  At least 2 years relevant working experience.
+  Compassion, positive and caring attitude.
+We are sorry only shortlisted candidate will be notified.</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesHighlights
+  5 days work week
+  Basic + Commission
+  Working Location: Central
+  AWS &amp; VB
+RESPONSIBILITIES:
+• Achieve individual sales target set by the company.
+• Develop effective Sales pitch based on promotion, policies and product updates.
+• Resolve escalated complaints from customers, customer service, sales support team and other sales streams.
+REQUIREMENTS:
+• Good Telephone Etiquette, Confident and Sales Driven
+• Energetic and proactive personality
+• Good Communication Skills
+• Highly Motivated to have a career in Sales
+Interested applicants please send your resume to admin@thewritesrecruit.com.sg to further discuss on your eligibility. We regret to inform that only shortlisted candidates will be notified.
+If you are looking for a role where you can contribute effectively,contact us at admin@thewritesrecruit.com.sg for a confidential discussion.
+By submitting your curriculum vitae or personal data to us in connection with your job application, you hereby consent to The Writes Recruitment Pte Ltd collecting, using and disclosing your personal data to prospective employers to collect, use and disclose these personal data for purposes of evaluating your suitability for employment ,conducting reference checks, administering employment related services and such other purposes stated in our privacy policy. You acknowledge that the full privacy policy is available at www.thewritesrecruit.com.sg or at your request. If you wish to withdraw your consent, please drop us an email admin@thewritescruit.com.sg to let us know.</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesYou'll love this position if...
+· You want the primary responsibility of supporting the sales growth initiatives across South East Asia.
+· You are passionate about the new technology and high growth in the next few years.
+· You love working closely within a startup environment full with MNC background team. in the territory to support various types of pre- and post-sales opportunities including critical projects.
+· You are great at communication and collaboration internally and externally.
+What is DeltaFrontier?
+DeltaFrontier is Singapore based company, value added solution partner provides edge technology in AI and IoT world. As a regional appointed distributor, we look forward the new technology era in the coming years, targeting to be a leading solution and product supplier in the region. 
+  An innovative company, DeltaFrontier is fast growing; Our success is largely due to the high skilled staff and professional service which allow us to expand speedily in this region. DeltaFrontier’s employees are accountable, creative, and hands-on energetic talents. Those are the driving force of the company seeking for talent to move forward towards achieving goals. 
+  At DeltaFrontier you will have a great chance for development in an organization that values creativity and promotes individual growth. We welcome your application and look forward to the possibility of you joining us!
+Job Highlights :
+Great Opportunities for new innovative cutting-edge technology (AI, 5G, VR)
+Attractive Salary + Incentives + Commissions
+Exciting Vibrant Startup Culture
+What You’ll Do Here…
+· organising sales visits
+· demonstrating and presenting products
+· establishing new business
+· Lead on marketing initiatives such as mailers and ads to generate qualified leads
+· maintaining accurate records
+· attending trade exhibitions, conferences, and meetings
+· reviewing sales performance
+· negotiating contracts and packages
+· aiming to achieve monthly or annual targets
+· Follow up closely to ensure excellent pre-sales and post-sales account servicing
+What We Are Looking For …
+· relevant work experience preferably in start-up, consumer retail
+· Passion to hunt (cold-call), educate and sell - you are resilient and can adapt to change easily
+· The ability to learn and apply new concepts quickly
+· A metrics-oriented, competitive attitude
+· Solution focused mindset and strong attention to detail
+· Positive and energetic attitude
+· Patience, excellent inter-personal skills
+· Strong business acumen
+· Technical IT, Biometrics, CCTV is huge plus.
+· PR or Singaporean
+Deltafrontier Singapore office
+ 77 High street, 08-13, S179433
+Tel: +65 69626981
+E-mail: sales@deltafrontier.com</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesWe are looking for passionate candidates to expand our cleaning crew.
+Job type: Full time/Part time
+-Basic salary with attractive incentives
+-Call 94779889
+Job Description:
+-General cleaning at Offices, Childcare Centres, Commercial buildings, Hawker Centres etc.
+-Follow instructions given by management, supervisors and in-charge.
+-On-site training will be provided.
+Requirements:
+-Willingly to travel to any location in Singapore.
+-Positive working attitude.
+-Preferably to have some relevant experience.
+-Singaporean/PR
+-Able to start work immediately or within a short notice.</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesHighlights
+  5 working days
+  Salary: Basic + Commission
+  Working Location: Central ( Temp WFH)
+RESPONSIBILITIES
+1. Actively promote and sell over the phone
+2. Provide a consistently high level of service to our customers;
+3. Effectively handle complaints at the first point of contact, aiming to resolve situations in an effective and efficient manner;
+4. Participate in process improvement sessions, providing constructive feedback and suggestions.
+REQUIREMENTS:
+1. Excellent telephone etiquette
+2. Customer oriented enthusiastic, good working attitude and patient
+3. Highly motivated and result oriented
+4. Have obtained a minimum of Nitec or Diploma of any field
+5. Previous telesales experience will be advantageous
+Interested applicants please send your resume to admin@thewritesrecruit.com.sg to further discuss on your eligibility. We regret to inform that only shortlisted candidates will be notified.
+If you are looking for a role where you can contribute effectively,contact us at admin@thewritesrecruit.com.sg for a confidential discussion.
+By submitting your curriculum vitae or personal data to us in connection with your job application, you hereby consent to The Writes Recruitment Pte Ltd collecting, using and disclosing your personal data to prospective employers to collect, use and disclose these personal data for purposes of evaluating your suitability for employment ,conducting reference checks, administering employment related services and such other purposes stated in our privacy policy. You acknowledge that the full privacy policy is available at www.thewritesrecruit.com.sg or at your request. If you wish to withdraw your consent, please drop us an email admin@thewritescruit.com.sg to let us know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles &amp; Responsibilitiesentails providing strategic planning, operational support, and research, and advice to senior management on administrative matters such as staff management, financial planning, and facilities management.
+Must have experience handling office work independently
+Experience for recruitment
+Knowledge for MOM application issue
+Able to handle accounting and payroll. </t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesJob Scope
+· Work closely with Project Sales to understand clients’ requirements
+· Work with design team and prepare drawings, costings, quotation and proposal
+· Work closely with Project Sales to manage project tasks and work schedule
+· Meet and present Design proposals to clients
+· Follow-through all required clients’ communications and correspondences
+· Maintain excellent customer relationship
+Requirements
+· Have at least 2 years experience in ID industry
+· Degree/Diploma in Interior Design/Architecture or equivalent
+· Able to draw 2D and 3D designs for residential and commercial projects
+· Preference for candidates who are bilingual
+· Work well in a team, is discipline, positive and willing to learn and grow with the team
+· IT-savvy with design software, phone apps, social media,ZOOM, Google Docs and MS Office
+· Competent in using software(s): AutoCAD/Google SketchUp/3D Studio Max/Photoshop
+· Flair in creative and have a passion for spatial design
+· Service oriented, proactive and have an outgoing personality
+· Organise, can multitask and detail in work
+· Willingness to take on new roles and work as the company grows</t>
+  </si>
+  <si>
+    <t>Roles &amp; ResponsibilitiesPostdoctoral Research Fellow position in the area of Computational Chemistry is available at the Department of Chemical and Biomolecular Engineering at the National University of Singapore (#3 in QS World University Rankings for Chemical Engineering). The position is open for 1 year with a flexible starting date and could be extended upon mutual interest.
+The applicant will work with Prof. Sergey Kozlov in the Computational Nanocatalysis group, which focuses on the simulations of physical and chemical interactions in emerging classes of nanostructured materials. The applicant will use periodic density functional (DFT) simulations and the atomic simulation environment (ASE) to characterize the structure and catalytic activity of composite materials. The research will focus on simulations of advanced heterogeneous catalysts necessary for the transition to CO2-neutral economy (e.g., CO2 conversion to methanol and other chemicals) and the exploration of various strategies to increase the activity of the catalysts. A significant part of the investigations will be performed in collaboration with experimental groups participating in the Flagship Green Energy Program of the National University of Singapore (http://greenenergy.nus.edu.sg/) and international experimental collaborators.
+Qualifications
+  Ph.D. in Chemical Engineering or Chemistry
+  Experience in DFT studies of heterogeneous catalysts or electrochemistry
+  The ability to creatively contribute to collaborations with experimental colleagues.
+  Excellent writing skills and fluency in English.
+  Knowledge of shell scripting and Python.
+  Expertise in VASP is preferred.
+Interested applicants are invited to apply directly at our NUS Career Portal.
+We regret that only shortlisted candidates will be notified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles &amp; Responsibilities
+  Responsible for maintaining full set of Accounts and deliver timely and accurate financial reports
+  Ensure timely generation of sales invoices
+  Prepare Payroll
+  Prepare monthly financial and management reports
+  Involve in year-end audit and closing
+  GST reconciliation and submission
+  Assist in other ad-hoc project assignment as per required
+  GCE " O" / A Level in accounting
+  Experience in full set of accounts
+  Independent and able to work under tight deadlines
+  Possess strong interpersonal and communication skills
+  Possess multi-tasking capability
+  Have positive working attitude, proactive and meticulous
+  Proficient in Microsoft Office (Word &amp; Excel)
+  5.5 days week
+  Location – Kaki Bukit Crescent
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Roles &amp; ResponsibilitiesJob Description: 
-Infrastructure and Portal Support Section (IPSS).
-1. Infrastructure Support.   The team will provide the technical support for all LEARNet infrastructure and technological matters. Monitor the setting up of the regional tech support teams under the supervision of the Tech Support Team and a Tech Support Helpline. Supervise the provision of technical support to all LEARNet units through the regional tech support teams.
-2. Portal Support   The team will be responsible for the development and maintenance of the LEARNet Portal. Supervise the continual development and updating of the LEARNet Portal. Supervise the maintenance of the Portal through the Portal Manager. The IPSS team will be headed by an IPSS Team Lead and supported by 2 Executives and the team will report to the Authority (Portal Track Lead)
-Responsibility of IPSS.
-a. Liaise with PMT on all project activities
-b. Liaise with PMT on security matters.
-c. Co-ordinate user training.
-d. Follow up end users for all LEARNet related operation issues.
-e. Follow up and update on resolution of customers’ issues. Report on developer/service providers’ SLA in resolving issues.
-a. Implement software change request for the purpose of operational enhancement.
-b. Ensure proper acknowledgement of all reported defects and monitoring of the status of the defects
-c. Work with DSTA on monitoring the running and performance of the portal
-d. Manage the look and feel of the portal.
-e. Perform the role of Portal Administrator, in charge of Announcements and Community Management/Administration.
-f. Assist end users/POCs on enquires related to communities and direct them to the correct entity for resolution.
-g. Perform acceptance test for changes for the Portal.
-h. Conduct Post Implementation Review.
-Job Requirement: 
-  Degree in Computer Science or Electronic/Electrical Engineering
-  Strong analytical and problem-solving skills
-  Good communication and inter-personal skills.
-  Able to work in a team as well as independently.
-  Proactive in solutioning.
-  Good time management and be goal oriented.
-  Meticulous.
-  Candidates with PMP or CITPM certification would be advantageous.
-  3-5 years of working experience 
-Additional Information: 
-Location : Upper Jurong Road
-Working Hours: 8am-6pm
-Performance bonus : Yes
-Interested applicants please drop the resume directly to Patrina@eps.com.sg for faster processing.
-</t>
-  </si>
-  <si>
-    <t>Roles &amp; Responsibilities❤️Sales Personnel❤️100% Customers Provided❤️
-❤️$3000-$6000 (Salary + Comm)
-❤️No Need To Find Customers
-❤️Interested Customers Meet Up At Office Appointments Fully Provided
-❤️No Experience Acceptable - Training provided
-❤️Career Progression Available
-❤️Whatsapp Only - For Applications And Enquiries - Alvin 93381340
-(Pay Package To Be Negotiated Based On Interviewing Confidence + Past Work Experiences And Last Drawn Salary)
-❤️Not Required To Be A Sales Hunter
-❤️No Cold Calls
-❤️No Roadshows
-❤️No Street Canvassing
-❤️No Door To Door
-❤️No Approaching Of Own Contacts
-❤️(Ready To Be Prospected Customers Office Appointments Provided)
-Job Requirements
-To Serve B2B/B2C Customers + Clients Via Office Appointment Basis And Explain Enquiries In Office, Showing Customers Around Company’s Facilities + One To One Sales And Events Presentations, Maintaining Relationship Of Existing Client Accounts As Well, Applicants Have To Like Interacting With People
-❤️Salary
-Average Take Home $6000 Per Monthly Based On New Personnels First Year Track Record, And 5-Figure Monthly Monetary Career Advancement And Progression To Come When Experienced
-Eligibility
-For Full-Time Jobseekers, Looking For Lucrative Career, People On Part-Time Studies Welcome As Well
-❤️Application/Enquiries
-For Fast Response To Secure Limited Available Slots, (Kindly Contact By Whatsapp Only) To Alvin 93381340 For Applications And Enquiries (24/7 Reply ASAP) - First Come First Serve Basis - All Other Forms Of Applications Will Not Be Noticed
-Note
-By Sending Any Application To Us, You Will Have Deemed To Have Consented To Us Collecting, Using, Retaining And Disclosing Your Personal Information To Prospective Employers For Their Consideration
-❤️Note: No Calls Will Be Entertained
-Alvin Chia
-Recruitment Express
-EA license: 20C0178
-EA Personnel No : R1874093</t>
+    <t>Job Description</t>
   </si>
 </sst>
 </file>
@@ -593,22 +861,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60981872-D7FF-421D-9D71-4FE64D4BF09C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="124.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="124.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,47 +889,50 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -670,10 +941,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -687,10 +958,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -704,7 +975,262 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
